--- a/Tabela_SLR.xlsx
+++ b/Tabela_SLR.xlsx
@@ -59,10 +59,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t xml:space="preserve">INTEIRO </t>
+    <t>INTEIRO</t>
   </si>
   <si>
-    <t xml:space="preserve">REAL </t>
+    <t>REAL</t>
   </si>
   <si>
     <t>CARACTER</t>
@@ -612,7 +612,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -653,6 +653,12 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -709,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -752,22 +758,25 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -782,7 +791,7 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1569,7 +1578,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1702,115 +1711,115 @@
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="X9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Y9" s="13" t="s">
+      <c r="Y9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="Z9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AA9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AB9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="13" t="s">
+      <c r="AC9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="13" t="s">
+      <c r="AE9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AF9" s="13" t="s">
+      <c r="AF9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AG9" s="13" t="s">
+      <c r="AG9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AH9" s="13" t="s">
+      <c r="AH9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AI9" s="13" t="s">
+      <c r="AI9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="13" t="s">
+      <c r="AJ9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AK9" s="13" t="s">
+      <c r="AK9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AL9" s="14" t="s">
+      <c r="AL9" s="15" t="s">
         <v>74</v>
       </c>
       <c r="AM9" s="9"/>
@@ -1839,115 +1848,115 @@
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="W10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="X10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AA10" s="13" t="s">
+      <c r="AA10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AB10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AC10" s="13" t="s">
+      <c r="AC10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AD10" s="13" t="s">
+      <c r="AD10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE10" s="13" t="s">
+      <c r="AE10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AF10" s="13" t="s">
+      <c r="AF10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AG10" s="13" t="s">
+      <c r="AG10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AH10" s="13" t="s">
+      <c r="AH10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AI10" s="13" t="s">
+      <c r="AI10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AJ10" s="13" t="s">
+      <c r="AJ10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AK10" s="13" t="s">
+      <c r="AK10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AL10" s="14" t="s">
+      <c r="AL10" s="15" t="s">
         <v>75</v>
       </c>
       <c r="AM10" s="9"/>
@@ -1976,115 +1985,115 @@
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="X11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Y11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="Z11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AA11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AB11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AC11" s="13" t="s">
+      <c r="AC11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AD11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AE11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AF11" s="13" t="s">
+      <c r="AF11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AG11" s="13" t="s">
+      <c r="AG11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AH11" s="13" t="s">
+      <c r="AH11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AI11" s="13" t="s">
+      <c r="AI11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AJ11" s="13" t="s">
+      <c r="AJ11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AK11" s="13" t="s">
+      <c r="AK11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AL11" s="14" t="s">
+      <c r="AL11" s="15" t="s">
         <v>76</v>
       </c>
       <c r="AM11" s="9"/>
@@ -2113,115 +2122,115 @@
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="W12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Y12" s="13" t="s">
+      <c r="Y12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Z12" s="13" t="s">
+      <c r="Z12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AA12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AB12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AC12" s="13" t="s">
+      <c r="AC12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AD12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AE12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AF12" s="13" t="s">
+      <c r="AF12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AG12" s="13" t="s">
+      <c r="AG12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AH12" s="13" t="s">
+      <c r="AH12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AI12" s="13" t="s">
+      <c r="AI12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AJ12" s="13" t="s">
+      <c r="AJ12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AK12" s="13" t="s">
+      <c r="AK12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AL12" s="14" t="s">
+      <c r="AL12" s="15" t="s">
         <v>77</v>
       </c>
       <c r="AM12" s="9"/>
@@ -2408,7 +2417,7 @@
       <c r="A15" s="2">
         <v>13.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -2417,106 +2426,106 @@
       <c r="D15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="14" t="s">
         <v>79</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="V15" s="13" t="s">
+      <c r="V15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="W15" s="13" t="s">
+      <c r="W15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="X15" s="13" t="s">
+      <c r="X15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Y15" s="13" t="s">
+      <c r="Y15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Z15" s="13" t="s">
+      <c r="Z15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AA15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AB15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AC15" s="13" t="s">
+      <c r="AC15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AD15" s="13" t="s">
+      <c r="AD15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AE15" s="13" t="s">
+      <c r="AE15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AF15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AG15" s="13" t="s">
+      <c r="AG15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AH15" s="13" t="s">
+      <c r="AH15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AI15" s="13" t="s">
+      <c r="AI15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AJ15" s="13" t="s">
+      <c r="AJ15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AK15" s="13" t="s">
+      <c r="AK15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AL15" s="14" t="s">
+      <c r="AL15" s="15" t="s">
         <v>79</v>
       </c>
       <c r="AM15" s="9"/>
@@ -2545,7 +2554,7 @@
       <c r="A16" s="2">
         <v>14.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -2554,13 +2563,13 @@
       <c r="D16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -2569,19 +2578,19 @@
       <c r="I16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>80</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="14" t="s">
         <v>80</v>
       </c>
       <c r="O16" s="8" t="s">
@@ -2590,70 +2599,70 @@
       <c r="P16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="U16" s="13" t="s">
+      <c r="U16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="V16" s="13" t="s">
+      <c r="V16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="W16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="13" t="s">
+      <c r="X16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="Y16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="Z16" s="13" t="s">
+      <c r="Z16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AA16" s="13" t="s">
+      <c r="AA16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" s="13" t="s">
+      <c r="AB16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AC16" s="13" t="s">
+      <c r="AC16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AD16" s="13" t="s">
+      <c r="AD16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AE16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AF16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AG16" s="13" t="s">
+      <c r="AG16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AH16" s="13" t="s">
+      <c r="AH16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AI16" s="13" t="s">
+      <c r="AI16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AJ16" s="13" t="s">
+      <c r="AJ16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AK16" s="13" t="s">
+      <c r="AK16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AL16" s="14" t="s">
+      <c r="AL16" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AM16" s="9"/>
@@ -2682,112 +2691,112 @@
       <c r="A17" s="2">
         <v>15.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="U17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="V17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="W17" s="13" t="s">
+      <c r="W17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="X17" s="13" t="s">
+      <c r="X17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="Y17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Z17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AA17" s="13" t="s">
+      <c r="AA17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AB17" s="13" t="s">
+      <c r="AB17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AC17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AD17" s="13" t="s">
+      <c r="AD17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AE17" s="13" t="s">
+      <c r="AE17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AF17" s="13" t="s">
+      <c r="AF17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AG17" s="13" t="s">
+      <c r="AG17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AH17" s="13" t="s">
+      <c r="AH17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AI17" s="13" t="s">
+      <c r="AI17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AJ17" s="13" t="s">
+      <c r="AJ17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AK17" s="13" t="s">
+      <c r="AK17" s="14" t="s">
         <v>81</v>
       </c>
       <c r="AL17" s="11" t="s">
@@ -2819,7 +2828,7 @@
       <c r="A18" s="2">
         <v>16.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2828,13 +2837,13 @@
       <c r="D18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -2843,16 +2852,16 @@
       <c r="I18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="N18" s="8" t="s">
@@ -2864,70 +2873,70 @@
       <c r="P18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V18" s="13" t="s">
+      <c r="V18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="W18" s="13" t="s">
+      <c r="W18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="X18" s="13" t="s">
+      <c r="X18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Y18" s="13" t="s">
+      <c r="Y18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Z18" s="13" t="s">
+      <c r="Z18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AA18" s="13" t="s">
+      <c r="AA18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AB18" s="13" t="s">
+      <c r="AB18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AC18" s="13" t="s">
+      <c r="AC18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AD18" s="13" t="s">
+      <c r="AD18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AE18" s="13" t="s">
+      <c r="AE18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AF18" s="13" t="s">
+      <c r="AF18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AG18" s="13" t="s">
+      <c r="AG18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AH18" s="13" t="s">
+      <c r="AH18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AI18" s="13" t="s">
+      <c r="AI18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AJ18" s="13" t="s">
+      <c r="AJ18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AK18" s="13" t="s">
+      <c r="AK18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AL18" s="14" t="s">
+      <c r="AL18" s="15" t="s">
         <v>82</v>
       </c>
       <c r="AM18" s="9"/>
@@ -2956,7 +2965,7 @@
       <c r="A19" s="2">
         <v>17.0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2965,13 +2974,13 @@
       <c r="D19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -2980,16 +2989,16 @@
       <c r="I19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="14" t="s">
         <v>83</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="14" t="s">
         <v>83</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -3001,70 +3010,70 @@
       <c r="P19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="U19" s="13" t="s">
+      <c r="U19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="V19" s="13" t="s">
+      <c r="V19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="W19" s="13" t="s">
+      <c r="W19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="X19" s="13" t="s">
+      <c r="X19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" s="13" t="s">
+      <c r="Y19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" s="13" t="s">
+      <c r="Z19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AA19" s="13" t="s">
+      <c r="AA19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AB19" s="13" t="s">
+      <c r="AB19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AC19" s="13" t="s">
+      <c r="AC19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AD19" s="13" t="s">
+      <c r="AD19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AE19" s="13" t="s">
+      <c r="AE19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AF19" s="13" t="s">
+      <c r="AF19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AG19" s="13" t="s">
+      <c r="AG19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AH19" s="13" t="s">
+      <c r="AH19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AI19" s="13" t="s">
+      <c r="AI19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AJ19" s="13" t="s">
+      <c r="AJ19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AK19" s="13" t="s">
+      <c r="AK19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AL19" s="14" t="s">
+      <c r="AL19" s="15" t="s">
         <v>83</v>
       </c>
       <c r="AM19" s="9"/>
@@ -3093,7 +3102,7 @@
       <c r="A20" s="2">
         <v>18.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3102,13 +3111,13 @@
       <c r="D20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3117,16 +3126,16 @@
       <c r="I20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="14" t="s">
         <v>84</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="14" t="s">
         <v>84</v>
       </c>
       <c r="N20" s="8" t="s">
@@ -3138,70 +3147,70 @@
       <c r="P20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U20" s="13" t="s">
+      <c r="U20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="V20" s="13" t="s">
+      <c r="V20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="W20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="X20" s="13" t="s">
+      <c r="X20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" s="13" t="s">
+      <c r="Y20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" s="13" t="s">
+      <c r="Z20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AA20" s="13" t="s">
+      <c r="AA20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AB20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AC20" s="13" t="s">
+      <c r="AC20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AD20" s="13" t="s">
+      <c r="AD20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AE20" s="13" t="s">
+      <c r="AE20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AF20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AG20" s="13" t="s">
+      <c r="AG20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AH20" s="13" t="s">
+      <c r="AH20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AI20" s="13" t="s">
+      <c r="AI20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AJ20" s="13" t="s">
+      <c r="AJ20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AK20" s="13" t="s">
+      <c r="AK20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AL20" s="14" t="s">
+      <c r="AL20" s="15" t="s">
         <v>84</v>
       </c>
       <c r="AM20" s="9"/>
@@ -3230,7 +3239,7 @@
       <c r="A21" s="2">
         <v>19.0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3239,13 +3248,13 @@
       <c r="D21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="14" t="s">
         <v>85</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3254,16 +3263,16 @@
       <c r="I21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="14" t="s">
         <v>85</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="14" t="s">
         <v>85</v>
       </c>
       <c r="N21" s="8" t="s">
@@ -3275,70 +3284,70 @@
       <c r="P21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="U21" s="13" t="s">
+      <c r="U21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="V21" s="13" t="s">
+      <c r="V21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="W21" s="13" t="s">
+      <c r="W21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="X21" s="13" t="s">
+      <c r="X21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Y21" s="13" t="s">
+      <c r="Y21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Z21" s="13" t="s">
+      <c r="Z21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AA21" s="13" t="s">
+      <c r="AA21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AB21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AC21" s="13" t="s">
+      <c r="AC21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AD21" s="13" t="s">
+      <c r="AD21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AE21" s="13" t="s">
+      <c r="AE21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AF21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AG21" s="13" t="s">
+      <c r="AG21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AH21" s="13" t="s">
+      <c r="AH21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AI21" s="13" t="s">
+      <c r="AI21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AJ21" s="13" t="s">
+      <c r="AJ21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AK21" s="13" t="s">
+      <c r="AK21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AL21" s="14" t="s">
+      <c r="AL21" s="15" t="s">
         <v>85</v>
       </c>
       <c r="AM21" s="9"/>
@@ -3367,7 +3376,7 @@
       <c r="A22" s="2">
         <v>20.0</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -3376,13 +3385,13 @@
       <c r="D22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3391,16 +3400,16 @@
       <c r="I22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="14" t="s">
         <v>86</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="14" t="s">
         <v>86</v>
       </c>
       <c r="N22" s="8" t="s">
@@ -3412,70 +3421,70 @@
       <c r="P22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="U22" s="13" t="s">
+      <c r="U22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="V22" s="13" t="s">
+      <c r="V22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="W22" s="13" t="s">
+      <c r="W22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="X22" s="13" t="s">
+      <c r="X22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Y22" s="13" t="s">
+      <c r="Y22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Z22" s="13" t="s">
+      <c r="Z22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AA22" s="13" t="s">
+      <c r="AA22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AB22" s="13" t="s">
+      <c r="AB22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AC22" s="13" t="s">
+      <c r="AC22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AD22" s="13" t="s">
+      <c r="AD22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AE22" s="13" t="s">
+      <c r="AE22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AF22" s="13" t="s">
+      <c r="AF22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AG22" s="13" t="s">
+      <c r="AG22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AH22" s="13" t="s">
+      <c r="AH22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AI22" s="13" t="s">
+      <c r="AI22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AJ22" s="13" t="s">
+      <c r="AJ22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AK22" s="13" t="s">
+      <c r="AK22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AL22" s="14" t="s">
+      <c r="AL22" s="15" t="s">
         <v>86</v>
       </c>
       <c r="AM22" s="9"/>
@@ -3504,7 +3513,7 @@
       <c r="A23" s="2">
         <v>21.0</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3513,13 +3522,13 @@
       <c r="D23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3528,16 +3537,16 @@
       <c r="I23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="14" t="s">
         <v>87</v>
       </c>
       <c r="N23" s="8" t="s">
@@ -3549,70 +3558,70 @@
       <c r="P23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V23" s="13" t="s">
+      <c r="V23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="W23" s="13" t="s">
+      <c r="W23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="X23" s="13" t="s">
+      <c r="X23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="13" t="s">
+      <c r="Y23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Z23" s="13" t="s">
+      <c r="Z23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AA23" s="13" t="s">
+      <c r="AA23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AB23" s="13" t="s">
+      <c r="AB23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AC23" s="13" t="s">
+      <c r="AC23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AD23" s="13" t="s">
+      <c r="AD23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AE23" s="13" t="s">
+      <c r="AE23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AF23" s="13" t="s">
+      <c r="AF23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AG23" s="13" t="s">
+      <c r="AG23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AH23" s="13" t="s">
+      <c r="AH23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AI23" s="13" t="s">
+      <c r="AI23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AJ23" s="13" t="s">
+      <c r="AJ23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AK23" s="13" t="s">
+      <c r="AK23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AL23" s="14" t="s">
+      <c r="AL23" s="15" t="s">
         <v>87</v>
       </c>
       <c r="AM23" s="9"/>
@@ -3846,97 +3855,97 @@
       <c r="A27" s="2">
         <v>25.0</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="14" t="s">
         <v>95</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="P27" s="13" t="s">
+      <c r="P27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="V27" s="13" t="s">
+      <c r="V27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="W27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="X27" s="13" t="s">
+      <c r="X27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="Y27" s="13" t="s">
+      <c r="Y27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="Z27" s="13" t="s">
+      <c r="Z27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AA27" s="13" t="s">
+      <c r="AA27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AB27" s="13" t="s">
+      <c r="AB27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AC27" s="13" t="s">
+      <c r="AC27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AD27" s="13" t="s">
+      <c r="AD27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AE27" s="13" t="s">
+      <c r="AE27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AF27" s="13" t="s">
+      <c r="AF27" s="14" t="s">
         <v>95</v>
       </c>
       <c r="AG27" s="8" t="s">
@@ -3951,10 +3960,10 @@
       <c r="AJ27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AK27" s="13" t="s">
+      <c r="AK27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AL27" s="14" t="s">
+      <c r="AL27" s="15" t="s">
         <v>95</v>
       </c>
       <c r="AM27" s="9"/>
@@ -4147,97 +4156,97 @@
       <c r="A30" s="2">
         <v>28.0</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>106</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="16" t="s">
         <v>106</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="O30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="P30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="R30" s="15" t="s">
+      <c r="R30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="S30" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="T30" s="15" t="s">
+      <c r="T30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="U30" s="16" t="s">
+      <c r="U30" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="V30" s="13" t="s">
+      <c r="V30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="W30" s="13" t="s">
+      <c r="W30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X30" s="13" t="s">
+      <c r="X30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="Y30" s="13" t="s">
+      <c r="Y30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="Z30" s="13" t="s">
+      <c r="Z30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AA30" s="13" t="s">
+      <c r="AA30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AB30" s="13" t="s">
+      <c r="AB30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AC30" s="13" t="s">
+      <c r="AC30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AD30" s="13" t="s">
+      <c r="AD30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AE30" s="13" t="s">
+      <c r="AE30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AF30" s="13" t="s">
+      <c r="AF30" s="14" t="s">
         <v>106</v>
       </c>
       <c r="AG30" s="8" t="s">
@@ -4252,10 +4261,10 @@
       <c r="AJ30" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AK30" s="13" t="s">
+      <c r="AK30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AL30" s="14" t="s">
+      <c r="AL30" s="15" t="s">
         <v>106</v>
       </c>
       <c r="AM30" s="9"/>
@@ -4284,67 +4293,67 @@
       <c r="A31" s="2">
         <v>29.0</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="R31" s="13" t="s">
+      <c r="R31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="V31" s="13" t="s">
+      <c r="V31" s="14" t="s">
         <v>107</v>
       </c>
       <c r="W31" s="8" t="s">
@@ -4359,40 +4368,40 @@
       <c r="Z31" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AA31" s="13" t="s">
+      <c r="AA31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AB31" s="13" t="s">
+      <c r="AB31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AC31" s="13" t="s">
+      <c r="AC31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AD31" s="13" t="s">
+      <c r="AD31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AE31" s="13" t="s">
+      <c r="AE31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AF31" s="13" t="s">
+      <c r="AF31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AG31" s="13" t="s">
+      <c r="AG31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AH31" s="13" t="s">
+      <c r="AH31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AI31" s="13" t="s">
+      <c r="AI31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AJ31" s="13" t="s">
+      <c r="AJ31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AK31" s="13" t="s">
+      <c r="AK31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AL31" s="14" t="s">
+      <c r="AL31" s="15" t="s">
         <v>107</v>
       </c>
       <c r="AM31" s="9"/>
@@ -4421,67 +4430,67 @@
       <c r="A32" s="2">
         <v>30.0</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="P32" s="13" t="s">
+      <c r="P32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="U32" s="13" t="s">
+      <c r="U32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="V32" s="13" t="s">
+      <c r="V32" s="14" t="s">
         <v>108</v>
       </c>
       <c r="W32" s="8" t="s">
@@ -4496,40 +4505,40 @@
       <c r="Z32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AA32" s="13" t="s">
+      <c r="AA32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AB32" s="13" t="s">
+      <c r="AB32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AC32" s="13" t="s">
+      <c r="AC32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AD32" s="13" t="s">
+      <c r="AD32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AE32" s="13" t="s">
+      <c r="AE32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AF32" s="13" t="s">
+      <c r="AF32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AG32" s="13" t="s">
+      <c r="AG32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AH32" s="13" t="s">
+      <c r="AH32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AI32" s="13" t="s">
+      <c r="AI32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AJ32" s="13" t="s">
+      <c r="AJ32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AK32" s="13" t="s">
+      <c r="AK32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AL32" s="14" t="s">
+      <c r="AL32" s="15" t="s">
         <v>108</v>
       </c>
       <c r="AM32" s="9"/>
@@ -4558,67 +4567,67 @@
       <c r="A33" s="2">
         <v>31.0</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="U33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="V33" s="13" t="s">
+      <c r="V33" s="14" t="s">
         <v>109</v>
       </c>
       <c r="W33" s="8" t="s">
@@ -4633,40 +4642,40 @@
       <c r="Z33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AA33" s="13" t="s">
+      <c r="AA33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AB33" s="13" t="s">
+      <c r="AB33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AC33" s="13" t="s">
+      <c r="AC33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AD33" s="13" t="s">
+      <c r="AD33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AE33" s="13" t="s">
+      <c r="AE33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AF33" s="13" t="s">
+      <c r="AF33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AG33" s="13" t="s">
+      <c r="AG33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AH33" s="13" t="s">
+      <c r="AH33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AI33" s="13" t="s">
+      <c r="AI33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AJ33" s="13" t="s">
+      <c r="AJ33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AK33" s="13" t="s">
+      <c r="AK33" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AL33" s="14" t="s">
+      <c r="AL33" s="15" t="s">
         <v>109</v>
       </c>
       <c r="AM33" s="9"/>
@@ -5095,79 +5104,79 @@
       <c r="A40" s="2">
         <v>38.0</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>115</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="14" t="s">
         <v>115</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="O40" s="13" t="s">
+      <c r="O40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="Q40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="S40" s="13" t="s">
+      <c r="S40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="T40" s="13" t="s">
+      <c r="T40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="U40" s="13" t="s">
+      <c r="U40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="V40" s="13" t="s">
+      <c r="V40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="W40" s="13" t="s">
+      <c r="W40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="X40" s="13" t="s">
+      <c r="X40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="Y40" s="13" t="s">
+      <c r="Y40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="Z40" s="13" t="s">
+      <c r="Z40" s="14" t="s">
         <v>115</v>
       </c>
       <c r="AA40" s="8" t="s">
@@ -5200,10 +5209,10 @@
       <c r="AJ40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AK40" s="13" t="s">
+      <c r="AK40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AL40" s="14" t="s">
+      <c r="AL40" s="15" t="s">
         <v>115</v>
       </c>
       <c r="AM40" s="9"/>
@@ -5232,79 +5241,79 @@
       <c r="A41" s="2">
         <v>39.0</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="14" t="s">
         <v>116</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="N41" s="13" t="s">
+      <c r="N41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="O41" s="13" t="s">
+      <c r="O41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="Q41" s="13" t="s">
+      <c r="Q41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="U41" s="13" t="s">
+      <c r="U41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="V41" s="13" t="s">
+      <c r="V41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="W41" s="13" t="s">
+      <c r="W41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="X41" s="13" t="s">
+      <c r="X41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="Y41" s="13" t="s">
+      <c r="Y41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="Z41" s="13" t="s">
+      <c r="Z41" s="14" t="s">
         <v>116</v>
       </c>
       <c r="AA41" s="8" t="s">
@@ -5337,10 +5346,10 @@
       <c r="AJ41" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AK41" s="13" t="s">
+      <c r="AK41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AL41" s="14" t="s">
+      <c r="AL41" s="15" t="s">
         <v>116</v>
       </c>
       <c r="AM41" s="9"/>
@@ -5369,79 +5378,79 @@
       <c r="A42" s="2">
         <v>40.0</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="J42" s="13" t="s">
+      <c r="J42" s="14" t="s">
         <v>117</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="O42" s="13" t="s">
+      <c r="O42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="P42" s="13" t="s">
+      <c r="P42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q42" s="13" t="s">
+      <c r="Q42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="R42" s="13" t="s">
+      <c r="R42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="S42" s="13" t="s">
+      <c r="S42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="T42" s="13" t="s">
+      <c r="T42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="U42" s="13" t="s">
+      <c r="U42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="V42" s="13" t="s">
+      <c r="V42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="W42" s="13" t="s">
+      <c r="W42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="X42" s="13" t="s">
+      <c r="X42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Y42" s="13" t="s">
+      <c r="Y42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Z42" s="13" t="s">
+      <c r="Z42" s="14" t="s">
         <v>117</v>
       </c>
       <c r="AA42" s="8" t="s">
@@ -5474,10 +5483,10 @@
       <c r="AJ42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AK42" s="13" t="s">
+      <c r="AK42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="AL42" s="14" t="s">
+      <c r="AL42" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AM42" s="9"/>
@@ -5506,115 +5515,115 @@
       <c r="A43" s="2">
         <v>41.0</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="18" t="s">
         <v>118</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N43" s="17" t="s">
+      <c r="N43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O43" s="17" t="s">
+      <c r="O43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="P43" s="17" t="s">
+      <c r="P43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="Q43" s="17" t="s">
+      <c r="Q43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R43" s="17" t="s">
+      <c r="R43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="S43" s="17" t="s">
+      <c r="S43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="T43" s="17" t="s">
+      <c r="T43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="U43" s="17" t="s">
+      <c r="U43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="V43" s="17" t="s">
+      <c r="V43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="W43" s="17" t="s">
+      <c r="W43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="X43" s="17" t="s">
+      <c r="X43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="Y43" s="17" t="s">
+      <c r="Y43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="Z43" s="17" t="s">
+      <c r="Z43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="AA43" s="18" t="s">
+      <c r="AA43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AB43" s="18" t="s">
+      <c r="AB43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AC43" s="18" t="s">
+      <c r="AC43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AD43" s="18" t="s">
+      <c r="AD43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AE43" s="18" t="s">
+      <c r="AE43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AF43" s="18" t="s">
+      <c r="AF43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AG43" s="18" t="s">
+      <c r="AG43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AH43" s="18" t="s">
+      <c r="AH43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AI43" s="18" t="s">
+      <c r="AI43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AJ43" s="18" t="s">
+      <c r="AJ43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AK43" s="17" t="s">
+      <c r="AK43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="AL43" s="19" t="s">
+      <c r="AL43" s="20" t="s">
         <v>118</v>
       </c>
       <c r="AM43" s="9"/>
@@ -5643,67 +5652,67 @@
       <c r="A44" s="2">
         <v>42.0</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="O44" s="13" t="s">
+      <c r="O44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="P44" s="13" t="s">
+      <c r="P44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="Q44" s="13" t="s">
+      <c r="Q44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="T44" s="13" t="s">
+      <c r="T44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="U44" s="13" t="s">
+      <c r="U44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="V44" s="13" t="s">
+      <c r="V44" s="14" t="s">
         <v>119</v>
       </c>
       <c r="W44" s="8" t="s">
@@ -5718,40 +5727,40 @@
       <c r="Z44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AA44" s="13" t="s">
+      <c r="AA44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AB44" s="13" t="s">
+      <c r="AB44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AC44" s="13" t="s">
+      <c r="AC44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AD44" s="13" t="s">
+      <c r="AD44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AE44" s="13" t="s">
+      <c r="AE44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AF44" s="13" t="s">
+      <c r="AF44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AG44" s="13" t="s">
+      <c r="AG44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AH44" s="13" t="s">
+      <c r="AH44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AI44" s="13" t="s">
+      <c r="AI44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AJ44" s="13" t="s">
+      <c r="AJ44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AK44" s="13" t="s">
+      <c r="AK44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AL44" s="14" t="s">
+      <c r="AL44" s="15" t="s">
         <v>119</v>
       </c>
       <c r="AM44" s="9"/>
@@ -5780,67 +5789,67 @@
       <c r="A45" s="2">
         <v>43.0</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="M45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="N45" s="13" t="s">
+      <c r="N45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O45" s="13" t="s">
+      <c r="O45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="P45" s="13" t="s">
+      <c r="P45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="Q45" s="13" t="s">
+      <c r="Q45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="S45" s="13" t="s">
+      <c r="S45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="T45" s="13" t="s">
+      <c r="T45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="U45" s="13" t="s">
+      <c r="U45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="V45" s="13" t="s">
+      <c r="V45" s="14" t="s">
         <v>120</v>
       </c>
       <c r="W45" s="8" t="s">
@@ -5855,40 +5864,40 @@
       <c r="Z45" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AA45" s="13" t="s">
+      <c r="AA45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AB45" s="13" t="s">
+      <c r="AB45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AC45" s="13" t="s">
+      <c r="AC45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AD45" s="13" t="s">
+      <c r="AD45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AE45" s="13" t="s">
+      <c r="AE45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AF45" s="13" t="s">
+      <c r="AF45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AG45" s="13" t="s">
+      <c r="AG45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AH45" s="13" t="s">
+      <c r="AH45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AI45" s="13" t="s">
+      <c r="AI45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AJ45" s="13" t="s">
+      <c r="AJ45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AK45" s="13" t="s">
+      <c r="AK45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AL45" s="14" t="s">
+      <c r="AL45" s="15" t="s">
         <v>120</v>
       </c>
       <c r="AM45" s="9"/>
@@ -5917,67 +5926,67 @@
       <c r="A46" s="2">
         <v>44.0</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="L46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="M46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N46" s="13" t="s">
+      <c r="N46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="O46" s="13" t="s">
+      <c r="O46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="P46" s="13" t="s">
+      <c r="P46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q46" s="13" t="s">
+      <c r="Q46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="S46" s="13" t="s">
+      <c r="S46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="T46" s="13" t="s">
+      <c r="T46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="U46" s="13" t="s">
+      <c r="U46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="V46" s="13" t="s">
+      <c r="V46" s="14" t="s">
         <v>121</v>
       </c>
       <c r="W46" s="8" t="s">
@@ -5992,40 +6001,40 @@
       <c r="Z46" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AA46" s="13" t="s">
+      <c r="AA46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AB46" s="13" t="s">
+      <c r="AB46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AC46" s="13" t="s">
+      <c r="AC46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AD46" s="13" t="s">
+      <c r="AD46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AE46" s="13" t="s">
+      <c r="AE46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AF46" s="13" t="s">
+      <c r="AF46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AG46" s="13" t="s">
+      <c r="AG46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AH46" s="13" t="s">
+      <c r="AH46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AI46" s="13" t="s">
+      <c r="AI46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AJ46" s="13" t="s">
+      <c r="AJ46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AK46" s="13" t="s">
+      <c r="AK46" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AL46" s="14" t="s">
+      <c r="AL46" s="15" t="s">
         <v>121</v>
       </c>
       <c r="AM46" s="9"/>
@@ -6054,67 +6063,67 @@
       <c r="A47" s="2">
         <v>45.0</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M47" s="13" t="s">
+      <c r="M47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="N47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="O47" s="13" t="s">
+      <c r="O47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="P47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="Q47" s="13" t="s">
+      <c r="Q47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="S47" s="13" t="s">
+      <c r="S47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="T47" s="13" t="s">
+      <c r="T47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="U47" s="13" t="s">
+      <c r="U47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="V47" s="13" t="s">
+      <c r="V47" s="14" t="s">
         <v>122</v>
       </c>
       <c r="W47" s="8" t="s">
@@ -6129,40 +6138,40 @@
       <c r="Z47" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AA47" s="13" t="s">
+      <c r="AA47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AB47" s="13" t="s">
+      <c r="AB47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AC47" s="13" t="s">
+      <c r="AC47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AD47" s="13" t="s">
+      <c r="AD47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AE47" s="13" t="s">
+      <c r="AE47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AF47" s="13" t="s">
+      <c r="AF47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AG47" s="13" t="s">
+      <c r="AG47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AH47" s="13" t="s">
+      <c r="AH47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AI47" s="13" t="s">
+      <c r="AI47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AJ47" s="13" t="s">
+      <c r="AJ47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AK47" s="13" t="s">
+      <c r="AK47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AL47" s="14" t="s">
+      <c r="AL47" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AM47" s="9"/>
@@ -6191,67 +6200,67 @@
       <c r="A48" s="2">
         <v>46.0</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="M48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N48" s="13" t="s">
+      <c r="N48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="O48" s="13" t="s">
+      <c r="O48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="P48" s="13" t="s">
+      <c r="P48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="Q48" s="13" t="s">
+      <c r="Q48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="R48" s="13" t="s">
+      <c r="R48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S48" s="13" t="s">
+      <c r="S48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="T48" s="13" t="s">
+      <c r="T48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="U48" s="13" t="s">
+      <c r="U48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="V48" s="13" t="s">
+      <c r="V48" s="14" t="s">
         <v>123</v>
       </c>
       <c r="W48" s="8" t="s">
@@ -6266,40 +6275,40 @@
       <c r="Z48" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AA48" s="13" t="s">
+      <c r="AA48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AB48" s="13" t="s">
+      <c r="AB48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AC48" s="13" t="s">
+      <c r="AC48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AD48" s="13" t="s">
+      <c r="AD48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AE48" s="13" t="s">
+      <c r="AE48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AF48" s="13" t="s">
+      <c r="AF48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AG48" s="13" t="s">
+      <c r="AG48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AH48" s="13" t="s">
+      <c r="AH48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AI48" s="13" t="s">
+      <c r="AI48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AJ48" s="13" t="s">
+      <c r="AJ48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AK48" s="13" t="s">
+      <c r="AK48" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AL48" s="14" t="s">
+      <c r="AL48" s="15" t="s">
         <v>123</v>
       </c>
       <c r="AM48" s="9"/>
@@ -6328,67 +6337,67 @@
       <c r="A49" s="2">
         <v>47.0</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="M49" s="13" t="s">
+      <c r="M49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="N49" s="13" t="s">
+      <c r="N49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="O49" s="13" t="s">
+      <c r="O49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="P49" s="13" t="s">
+      <c r="P49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="Q49" s="13" t="s">
+      <c r="Q49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="R49" s="13" t="s">
+      <c r="R49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="S49" s="13" t="s">
+      <c r="S49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T49" s="13" t="s">
+      <c r="T49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="U49" s="13" t="s">
+      <c r="U49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="V49" s="13" t="s">
+      <c r="V49" s="14" t="s">
         <v>124</v>
       </c>
       <c r="W49" s="8" t="s">
@@ -6403,40 +6412,40 @@
       <c r="Z49" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AA49" s="13" t="s">
+      <c r="AA49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AB49" s="13" t="s">
+      <c r="AB49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AC49" s="13" t="s">
+      <c r="AC49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AD49" s="13" t="s">
+      <c r="AD49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AE49" s="13" t="s">
+      <c r="AE49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AF49" s="13" t="s">
+      <c r="AF49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AG49" s="13" t="s">
+      <c r="AG49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AH49" s="13" t="s">
+      <c r="AH49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AI49" s="13" t="s">
+      <c r="AI49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AJ49" s="13" t="s">
+      <c r="AJ49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AK49" s="13" t="s">
+      <c r="AK49" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AL49" s="14" t="s">
+      <c r="AL49" s="15" t="s">
         <v>124</v>
       </c>
       <c r="AM49" s="9"/>
@@ -6465,67 +6474,67 @@
       <c r="A50" s="2">
         <v>48.0</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="K50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="M50" s="13" t="s">
+      <c r="M50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="N50" s="13" t="s">
+      <c r="N50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="O50" s="13" t="s">
+      <c r="O50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="P50" s="13" t="s">
+      <c r="P50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="Q50" s="13" t="s">
+      <c r="Q50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="R50" s="13" t="s">
+      <c r="R50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="S50" s="13" t="s">
+      <c r="S50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="T50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="U50" s="13" t="s">
+      <c r="U50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="V50" s="13" t="s">
+      <c r="V50" s="14" t="s">
         <v>125</v>
       </c>
       <c r="W50" s="8" t="s">
@@ -6540,40 +6549,40 @@
       <c r="Z50" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AA50" s="13" t="s">
+      <c r="AA50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AB50" s="13" t="s">
+      <c r="AB50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AC50" s="13" t="s">
+      <c r="AC50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AD50" s="13" t="s">
+      <c r="AD50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AE50" s="13" t="s">
+      <c r="AE50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AF50" s="13" t="s">
+      <c r="AF50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AG50" s="13" t="s">
+      <c r="AG50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AH50" s="13" t="s">
+      <c r="AH50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AI50" s="13" t="s">
+      <c r="AI50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AJ50" s="13" t="s">
+      <c r="AJ50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AK50" s="13" t="s">
+      <c r="AK50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AL50" s="14" t="s">
+      <c r="AL50" s="15" t="s">
         <v>125</v>
       </c>
       <c r="AM50" s="9"/>
@@ -6602,67 +6611,67 @@
       <c r="A51" s="2">
         <v>49.0</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L51" s="13" t="s">
+      <c r="L51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M51" s="13" t="s">
+      <c r="M51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="N51" s="13" t="s">
+      <c r="N51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="O51" s="13" t="s">
+      <c r="O51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="P51" s="13" t="s">
+      <c r="P51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="Q51" s="13" t="s">
+      <c r="Q51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="S51" s="13" t="s">
+      <c r="S51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="T51" s="13" t="s">
+      <c r="T51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="U51" s="13" t="s">
+      <c r="U51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="V51" s="13" t="s">
+      <c r="V51" s="14" t="s">
         <v>126</v>
       </c>
       <c r="W51" s="8" t="s">
@@ -6677,40 +6686,40 @@
       <c r="Z51" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AA51" s="13" t="s">
+      <c r="AA51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AB51" s="13" t="s">
+      <c r="AB51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AC51" s="13" t="s">
+      <c r="AC51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AD51" s="13" t="s">
+      <c r="AD51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AE51" s="13" t="s">
+      <c r="AE51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AF51" s="13" t="s">
+      <c r="AF51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AG51" s="13" t="s">
+      <c r="AG51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AH51" s="13" t="s">
+      <c r="AH51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AI51" s="13" t="s">
+      <c r="AI51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AJ51" s="13" t="s">
+      <c r="AJ51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AK51" s="13" t="s">
+      <c r="AK51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AL51" s="14" t="s">
+      <c r="AL51" s="15" t="s">
         <v>126</v>
       </c>
       <c r="AM51" s="9"/>
@@ -6739,67 +6748,67 @@
       <c r="A52" s="2">
         <v>50.0</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N52" s="13" t="s">
+      <c r="N52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="O52" s="13" t="s">
+      <c r="O52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="P52" s="13" t="s">
+      <c r="P52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="Q52" s="13" t="s">
+      <c r="Q52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="R52" s="13" t="s">
+      <c r="R52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="S52" s="13" t="s">
+      <c r="S52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="T52" s="13" t="s">
+      <c r="T52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="U52" s="13" t="s">
+      <c r="U52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="V52" s="13" t="s">
+      <c r="V52" s="14" t="s">
         <v>127</v>
       </c>
       <c r="W52" s="8" t="s">
@@ -6814,40 +6823,40 @@
       <c r="Z52" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AA52" s="13" t="s">
+      <c r="AA52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AB52" s="13" t="s">
+      <c r="AB52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AC52" s="13" t="s">
+      <c r="AC52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AD52" s="13" t="s">
+      <c r="AD52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AE52" s="13" t="s">
+      <c r="AE52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AF52" s="13" t="s">
+      <c r="AF52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AG52" s="13" t="s">
+      <c r="AG52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AH52" s="13" t="s">
+      <c r="AH52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AI52" s="13" t="s">
+      <c r="AI52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AJ52" s="13" t="s">
+      <c r="AJ52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK52" s="13" t="s">
+      <c r="AK52" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AL52" s="14" t="s">
+      <c r="AL52" s="15" t="s">
         <v>127</v>
       </c>
       <c r="AM52" s="9"/>
@@ -6876,67 +6885,67 @@
       <c r="A53" s="2">
         <v>51.0</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K53" s="13" t="s">
+      <c r="K53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L53" s="13" t="s">
+      <c r="L53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="M53" s="13" t="s">
+      <c r="M53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="N53" s="13" t="s">
+      <c r="N53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="O53" s="13" t="s">
+      <c r="O53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="P53" s="13" t="s">
+      <c r="P53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="Q53" s="13" t="s">
+      <c r="Q53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="R53" s="13" t="s">
+      <c r="R53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="S53" s="13" t="s">
+      <c r="S53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="T53" s="13" t="s">
+      <c r="T53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="U53" s="13" t="s">
+      <c r="U53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="V53" s="13" t="s">
+      <c r="V53" s="14" t="s">
         <v>128</v>
       </c>
       <c r="W53" s="8" t="s">
@@ -6951,40 +6960,40 @@
       <c r="Z53" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AA53" s="13" t="s">
+      <c r="AA53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AB53" s="13" t="s">
+      <c r="AB53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AC53" s="13" t="s">
+      <c r="AC53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AD53" s="13" t="s">
+      <c r="AD53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AE53" s="13" t="s">
+      <c r="AE53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AF53" s="13" t="s">
+      <c r="AF53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AG53" s="13" t="s">
+      <c r="AG53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AH53" s="13" t="s">
+      <c r="AH53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AI53" s="13" t="s">
+      <c r="AI53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AJ53" s="13" t="s">
+      <c r="AJ53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AK53" s="13" t="s">
+      <c r="AK53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AL53" s="14" t="s">
+      <c r="AL53" s="15" t="s">
         <v>128</v>
       </c>
       <c r="AM53" s="9"/>
@@ -7376,7 +7385,7 @@
       <c r="A59" s="2">
         <v>57.0</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -7385,106 +7394,106 @@
       <c r="D59" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="K59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L59" s="13" t="s">
+      <c r="L59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M59" s="13" t="s">
+      <c r="M59" s="14" t="s">
         <v>132</v>
       </c>
       <c r="N59" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O59" s="13" t="s">
+      <c r="O59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="P59" s="13" t="s">
+      <c r="P59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="Q59" s="13" t="s">
+      <c r="Q59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="R59" s="13" t="s">
+      <c r="R59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="S59" s="13" t="s">
+      <c r="S59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="T59" s="13" t="s">
+      <c r="T59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="U59" s="13" t="s">
+      <c r="U59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="V59" s="13" t="s">
+      <c r="V59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="W59" s="13" t="s">
+      <c r="W59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="X59" s="13" t="s">
+      <c r="X59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="Y59" s="13" t="s">
+      <c r="Y59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="Z59" s="13" t="s">
+      <c r="Z59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AA59" s="13" t="s">
+      <c r="AA59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AB59" s="13" t="s">
+      <c r="AB59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AC59" s="13" t="s">
+      <c r="AC59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AD59" s="13" t="s">
+      <c r="AD59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AE59" s="13" t="s">
+      <c r="AE59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AF59" s="13" t="s">
+      <c r="AF59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AG59" s="13" t="s">
+      <c r="AG59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AH59" s="13" t="s">
+      <c r="AH59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AI59" s="13" t="s">
+      <c r="AI59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AJ59" s="13" t="s">
+      <c r="AJ59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AK59" s="13" t="s">
+      <c r="AK59" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AL59" s="14" t="s">
+      <c r="AL59" s="15" t="s">
         <v>132</v>
       </c>
       <c r="AM59" s="9"/>
@@ -7647,7 +7656,7 @@
       <c r="A62" s="2">
         <v>60.0</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -7656,13 +7665,13 @@
       <c r="D62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="14" t="s">
         <v>136</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -7671,16 +7680,16 @@
       <c r="I62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J62" s="13" t="s">
+      <c r="J62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="14" t="s">
         <v>136</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="14" t="s">
         <v>136</v>
       </c>
       <c r="N62" s="8" t="s">
@@ -7692,70 +7701,70 @@
       <c r="P62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="Q62" s="13" t="s">
+      <c r="Q62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="R62" s="13" t="s">
+      <c r="R62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="S62" s="13" t="s">
+      <c r="S62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="T62" s="13" t="s">
+      <c r="T62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="U62" s="13" t="s">
+      <c r="U62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="V62" s="13" t="s">
+      <c r="V62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="W62" s="13" t="s">
+      <c r="W62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="13" t="s">
+      <c r="X62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="Y62" s="13" t="s">
+      <c r="Y62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="Z62" s="13" t="s">
+      <c r="Z62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AA62" s="13" t="s">
+      <c r="AA62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AB62" s="13" t="s">
+      <c r="AB62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AC62" s="13" t="s">
+      <c r="AC62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AD62" s="13" t="s">
+      <c r="AD62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AE62" s="13" t="s">
+      <c r="AE62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AF62" s="13" t="s">
+      <c r="AF62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AG62" s="13" t="s">
+      <c r="AG62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AH62" s="13" t="s">
+      <c r="AH62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AI62" s="13" t="s">
+      <c r="AI62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AJ62" s="13" t="s">
+      <c r="AJ62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AK62" s="13" t="s">
+      <c r="AK62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AL62" s="14" t="s">
+      <c r="AL62" s="15" t="s">
         <v>136</v>
       </c>
       <c r="AM62" s="9"/>
@@ -8007,7 +8016,7 @@
       <c r="A66" s="2">
         <v>64.0</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -8016,13 +8025,13 @@
       <c r="D66" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="14" t="s">
         <v>139</v>
       </c>
       <c r="H66" s="8" t="s">
@@ -8031,16 +8040,16 @@
       <c r="I66" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K66" s="14" t="s">
         <v>139</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="M66" s="14" t="s">
         <v>139</v>
       </c>
       <c r="N66" s="8" t="s">
@@ -8052,70 +8061,70 @@
       <c r="P66" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="Q66" s="13" t="s">
+      <c r="Q66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="R66" s="13" t="s">
+      <c r="R66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S66" s="13" t="s">
+      <c r="S66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="T66" s="13" t="s">
+      <c r="T66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="U66" s="13" t="s">
+      <c r="U66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="V66" s="13" t="s">
+      <c r="V66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="W66" s="13" t="s">
+      <c r="W66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="X66" s="13" t="s">
+      <c r="X66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="Y66" s="13" t="s">
+      <c r="Y66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="Z66" s="13" t="s">
+      <c r="Z66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AA66" s="13" t="s">
+      <c r="AA66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AB66" s="13" t="s">
+      <c r="AB66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AC66" s="13" t="s">
+      <c r="AC66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AD66" s="13" t="s">
+      <c r="AD66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AE66" s="13" t="s">
+      <c r="AE66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AF66" s="13" t="s">
+      <c r="AF66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AG66" s="13" t="s">
+      <c r="AG66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AH66" s="13" t="s">
+      <c r="AH66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AI66" s="13" t="s">
+      <c r="AI66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AJ66" s="13" t="s">
+      <c r="AJ66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AK66" s="13" t="s">
+      <c r="AK66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AL66" s="14" t="s">
+      <c r="AL66" s="15" t="s">
         <v>139</v>
       </c>
       <c r="AM66" s="9"/>
@@ -8144,7 +8153,7 @@
       <c r="A67" s="2">
         <v>65.0</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -8153,13 +8162,13 @@
       <c r="D67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="14" t="s">
         <v>140</v>
       </c>
       <c r="H67" s="8" t="s">
@@ -8168,16 +8177,16 @@
       <c r="I67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="K67" s="14" t="s">
         <v>140</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M67" s="13" t="s">
+      <c r="M67" s="14" t="s">
         <v>140</v>
       </c>
       <c r="N67" s="8" t="s">
@@ -8189,70 +8198,70 @@
       <c r="P67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="Q67" s="13" t="s">
+      <c r="Q67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="R67" s="13" t="s">
+      <c r="R67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="S67" s="13" t="s">
+      <c r="S67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T67" s="13" t="s">
+      <c r="T67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="U67" s="13" t="s">
+      <c r="U67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="V67" s="13" t="s">
+      <c r="V67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="W67" s="13" t="s">
+      <c r="W67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="X67" s="13" t="s">
+      <c r="X67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="Y67" s="13" t="s">
+      <c r="Y67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="Z67" s="13" t="s">
+      <c r="Z67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AA67" s="13" t="s">
+      <c r="AA67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AB67" s="13" t="s">
+      <c r="AB67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AC67" s="13" t="s">
+      <c r="AC67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AD67" s="13" t="s">
+      <c r="AD67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AE67" s="13" t="s">
+      <c r="AE67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AF67" s="13" t="s">
+      <c r="AF67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AG67" s="13" t="s">
+      <c r="AG67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AH67" s="13" t="s">
+      <c r="AH67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AI67" s="13" t="s">
+      <c r="AI67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AJ67" s="13" t="s">
+      <c r="AJ67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AK67" s="13" t="s">
+      <c r="AK67" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AL67" s="14" t="s">
+      <c r="AL67" s="15" t="s">
         <v>140</v>
       </c>
       <c r="AM67" s="9"/>
@@ -9133,115 +9142,115 @@
       <c r="A80" s="2">
         <v>78.0</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="14" t="s">
         <v>149</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="J80" s="13" t="s">
+      <c r="J80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="K80" s="13" t="s">
+      <c r="K80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L80" s="13" t="s">
+      <c r="L80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="M80" s="13" t="s">
+      <c r="M80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N80" s="13" t="s">
+      <c r="N80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="O80" s="13" t="s">
+      <c r="O80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="P80" s="13" t="s">
+      <c r="P80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q80" s="13" t="s">
+      <c r="Q80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="R80" s="13" t="s">
+      <c r="R80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="S80" s="13" t="s">
+      <c r="S80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="T80" s="13" t="s">
+      <c r="T80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="U80" s="13" t="s">
+      <c r="U80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="V80" s="13" t="s">
+      <c r="V80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="W80" s="13" t="s">
+      <c r="W80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="X80" s="13" t="s">
+      <c r="X80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Y80" s="13" t="s">
+      <c r="Y80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Z80" s="13" t="s">
+      <c r="Z80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AA80" s="13" t="s">
+      <c r="AA80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AB80" s="13" t="s">
+      <c r="AB80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AC80" s="13" t="s">
+      <c r="AC80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AD80" s="13" t="s">
+      <c r="AD80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AE80" s="13" t="s">
+      <c r="AE80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AF80" s="13" t="s">
+      <c r="AF80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AG80" s="13" t="s">
+      <c r="AG80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AH80" s="13" t="s">
+      <c r="AH80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AI80" s="13" t="s">
+      <c r="AI80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AJ80" s="13" t="s">
+      <c r="AJ80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AK80" s="13" t="s">
+      <c r="AK80" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AL80" s="14" t="s">
+      <c r="AL80" s="15" t="s">
         <v>149</v>
       </c>
       <c r="AM80" s="9"/>
@@ -9412,115 +9421,115 @@
       <c r="A83" s="2">
         <v>81.0</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="I83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="14" t="s">
         <v>151</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="L83" s="13" t="s">
+      <c r="L83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="M83" s="13" t="s">
+      <c r="M83" s="14" t="s">
         <v>151</v>
       </c>
       <c r="N83" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="O83" s="13" t="s">
+      <c r="O83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="P83" s="13" t="s">
+      <c r="P83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="Q83" s="13" t="s">
+      <c r="Q83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="R83" s="13" t="s">
+      <c r="R83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="S83" s="13" t="s">
+      <c r="S83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="T83" s="13" t="s">
+      <c r="T83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="U83" s="13" t="s">
+      <c r="U83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="V83" s="13" t="s">
+      <c r="V83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="W83" s="13" t="s">
+      <c r="W83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="X83" s="13" t="s">
+      <c r="X83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="Y83" s="13" t="s">
+      <c r="Y83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="Z83" s="13" t="s">
+      <c r="Z83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AA83" s="13" t="s">
+      <c r="AA83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AB83" s="13" t="s">
+      <c r="AB83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AC83" s="13" t="s">
+      <c r="AC83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AD83" s="13" t="s">
+      <c r="AD83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AE83" s="13" t="s">
+      <c r="AE83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AF83" s="13" t="s">
+      <c r="AF83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AG83" s="13" t="s">
+      <c r="AG83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AH83" s="13" t="s">
+      <c r="AH83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AI83" s="13" t="s">
+      <c r="AI83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AJ83" s="13" t="s">
+      <c r="AJ83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AK83" s="13" t="s">
+      <c r="AK83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AL83" s="14" t="s">
+      <c r="AL83" s="15" t="s">
         <v>151</v>
       </c>
       <c r="AM83" s="9"/>
@@ -9549,115 +9558,115 @@
       <c r="A84" s="2">
         <v>82.0</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H84" s="13" t="s">
+      <c r="H84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="I84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="14" t="s">
         <v>152</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="L84" s="13" t="s">
+      <c r="L84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="M84" s="13" t="s">
+      <c r="M84" s="14" t="s">
         <v>152</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O84" s="13" t="s">
+      <c r="O84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="P84" s="13" t="s">
+      <c r="P84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="Q84" s="13" t="s">
+      <c r="Q84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="R84" s="13" t="s">
+      <c r="R84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="S84" s="13" t="s">
+      <c r="S84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="T84" s="13" t="s">
+      <c r="T84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="U84" s="13" t="s">
+      <c r="U84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="V84" s="13" t="s">
+      <c r="V84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="W84" s="13" t="s">
+      <c r="W84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="X84" s="13" t="s">
+      <c r="X84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="Y84" s="13" t="s">
+      <c r="Y84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="Z84" s="13" t="s">
+      <c r="Z84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AA84" s="13" t="s">
+      <c r="AA84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AB84" s="13" t="s">
+      <c r="AB84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AC84" s="13" t="s">
+      <c r="AC84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AD84" s="13" t="s">
+      <c r="AD84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AE84" s="13" t="s">
+      <c r="AE84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF84" s="13" t="s">
+      <c r="AF84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AG84" s="13" t="s">
+      <c r="AG84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AH84" s="13" t="s">
+      <c r="AH84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AI84" s="13" t="s">
+      <c r="AI84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AJ84" s="13" t="s">
+      <c r="AJ84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AK84" s="13" t="s">
+      <c r="AK84" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AL84" s="14" t="s">
+      <c r="AL84" s="15" t="s">
         <v>152</v>
       </c>
       <c r="AM84" s="9"/>
@@ -9751,115 +9760,115 @@
       <c r="A86" s="2">
         <v>84.0</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="G86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="H86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="14" t="s">
         <v>154</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L86" s="13" t="s">
+      <c r="L86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="M86" s="13" t="s">
+      <c r="M86" s="14" t="s">
         <v>154</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="O86" s="13" t="s">
+      <c r="O86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="P86" s="13" t="s">
+      <c r="P86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Q86" s="13" t="s">
+      <c r="Q86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="R86" s="13" t="s">
+      <c r="R86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="S86" s="13" t="s">
+      <c r="S86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="T86" s="13" t="s">
+      <c r="T86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="U86" s="13" t="s">
+      <c r="U86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="V86" s="13" t="s">
+      <c r="V86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="W86" s="13" t="s">
+      <c r="W86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="X86" s="13" t="s">
+      <c r="X86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Y86" s="13" t="s">
+      <c r="Y86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="Z86" s="13" t="s">
+      <c r="Z86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AA86" s="13" t="s">
+      <c r="AA86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AB86" s="13" t="s">
+      <c r="AB86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AC86" s="13" t="s">
+      <c r="AC86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AD86" s="13" t="s">
+      <c r="AD86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AE86" s="13" t="s">
+      <c r="AE86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AF86" s="13" t="s">
+      <c r="AF86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AG86" s="13" t="s">
+      <c r="AG86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AH86" s="13" t="s">
+      <c r="AH86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AI86" s="13" t="s">
+      <c r="AI86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AJ86" s="13" t="s">
+      <c r="AJ86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AK86" s="13" t="s">
+      <c r="AK86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AL86" s="14" t="s">
+      <c r="AL86" s="15" t="s">
         <v>154</v>
       </c>
       <c r="AM86" s="9"/>
@@ -10255,7 +10264,7 @@
       <c r="A92" s="2">
         <v>90.0</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="14" t="s">
         <v>158</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -10264,13 +10273,13 @@
       <c r="D92" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="14" t="s">
         <v>158</v>
       </c>
       <c r="H92" s="8" t="s">
@@ -10279,19 +10288,19 @@
       <c r="I92" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J92" s="13" t="s">
+      <c r="J92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="K92" s="13" t="s">
+      <c r="K92" s="14" t="s">
         <v>158</v>
       </c>
       <c r="L92" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="M92" s="13" t="s">
+      <c r="M92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N92" s="13" t="s">
+      <c r="N92" s="14" t="s">
         <v>158</v>
       </c>
       <c r="O92" s="8" t="s">
@@ -10300,70 +10309,70 @@
       <c r="P92" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q92" s="13" t="s">
+      <c r="Q92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="R92" s="13" t="s">
+      <c r="R92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="S92" s="13" t="s">
+      <c r="S92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="T92" s="13" t="s">
+      <c r="T92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="U92" s="13" t="s">
+      <c r="U92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="V92" s="13" t="s">
+      <c r="V92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="W92" s="13" t="s">
+      <c r="W92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="X92" s="13" t="s">
+      <c r="X92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="Y92" s="13" t="s">
+      <c r="Y92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="Z92" s="13" t="s">
+      <c r="Z92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AA92" s="13" t="s">
+      <c r="AA92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AB92" s="13" t="s">
+      <c r="AB92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AC92" s="13" t="s">
+      <c r="AC92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AD92" s="13" t="s">
+      <c r="AD92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AE92" s="13" t="s">
+      <c r="AE92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AF92" s="13" t="s">
+      <c r="AF92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AG92" s="13" t="s">
+      <c r="AG92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AH92" s="13" t="s">
+      <c r="AH92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AI92" s="13" t="s">
+      <c r="AI92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AJ92" s="13" t="s">
+      <c r="AJ92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AK92" s="13" t="s">
+      <c r="AK92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AL92" s="14" t="s">
+      <c r="AL92" s="15" t="s">
         <v>158</v>
       </c>
       <c r="AM92" s="9"/>
@@ -10392,7 +10401,7 @@
       <c r="A93" s="2">
         <v>91.0</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="14" t="s">
         <v>159</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -10401,13 +10410,13 @@
       <c r="D93" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="G93" s="14" t="s">
         <v>159</v>
       </c>
       <c r="H93" s="8" t="s">
@@ -10416,19 +10425,19 @@
       <c r="I93" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J93" s="13" t="s">
+      <c r="J93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K93" s="13" t="s">
+      <c r="K93" s="14" t="s">
         <v>159</v>
       </c>
       <c r="L93" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M93" s="13" t="s">
+      <c r="M93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N93" s="13" t="s">
+      <c r="N93" s="14" t="s">
         <v>159</v>
       </c>
       <c r="O93" s="8" t="s">
@@ -10437,70 +10446,70 @@
       <c r="P93" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Q93" s="13" t="s">
+      <c r="Q93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="R93" s="13" t="s">
+      <c r="R93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="S93" s="13" t="s">
+      <c r="S93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="T93" s="13" t="s">
+      <c r="T93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="U93" s="13" t="s">
+      <c r="U93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="V93" s="13" t="s">
+      <c r="V93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="W93" s="13" t="s">
+      <c r="W93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X93" s="13" t="s">
+      <c r="X93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="Y93" s="13" t="s">
+      <c r="Y93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="Z93" s="13" t="s">
+      <c r="Z93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AA93" s="13" t="s">
+      <c r="AA93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AB93" s="13" t="s">
+      <c r="AB93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AC93" s="13" t="s">
+      <c r="AC93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AD93" s="13" t="s">
+      <c r="AD93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AE93" s="13" t="s">
+      <c r="AE93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AF93" s="13" t="s">
+      <c r="AF93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AG93" s="13" t="s">
+      <c r="AG93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AH93" s="13" t="s">
+      <c r="AH93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AI93" s="13" t="s">
+      <c r="AI93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AJ93" s="13" t="s">
+      <c r="AJ93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AK93" s="13" t="s">
+      <c r="AK93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AL93" s="14" t="s">
+      <c r="AL93" s="15" t="s">
         <v>159</v>
       </c>
       <c r="AM93" s="9"/>
@@ -10529,7 +10538,7 @@
       <c r="A94" s="2">
         <v>92.0</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="14" t="s">
         <v>160</v>
       </c>
       <c r="C94" s="8" t="s">
@@ -10541,10 +10550,10 @@
       <c r="E94" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="14" t="s">
         <v>160</v>
       </c>
       <c r="H94" s="8" t="s">
@@ -10553,16 +10562,16 @@
       <c r="I94" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="K94" s="13" t="s">
+      <c r="K94" s="14" t="s">
         <v>160</v>
       </c>
       <c r="L94" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M94" s="13" t="s">
+      <c r="M94" s="14" t="s">
         <v>160</v>
       </c>
       <c r="N94" s="8" t="s">
@@ -10574,70 +10583,70 @@
       <c r="P94" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="Q94" s="13" t="s">
+      <c r="Q94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="R94" s="13" t="s">
+      <c r="R94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="S94" s="13" t="s">
+      <c r="S94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="T94" s="13" t="s">
+      <c r="T94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="U94" s="13" t="s">
+      <c r="U94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="V94" s="13" t="s">
+      <c r="V94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="W94" s="13" t="s">
+      <c r="W94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="X94" s="13" t="s">
+      <c r="X94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="Y94" s="13" t="s">
+      <c r="Y94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="Z94" s="13" t="s">
+      <c r="Z94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AA94" s="13" t="s">
+      <c r="AA94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AB94" s="13" t="s">
+      <c r="AB94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AC94" s="13" t="s">
+      <c r="AC94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AD94" s="13" t="s">
+      <c r="AD94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AE94" s="13" t="s">
+      <c r="AE94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AF94" s="13" t="s">
+      <c r="AF94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AG94" s="13" t="s">
+      <c r="AG94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AH94" s="13" t="s">
+      <c r="AH94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AI94" s="13" t="s">
+      <c r="AI94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AJ94" s="13" t="s">
+      <c r="AJ94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AK94" s="13" t="s">
+      <c r="AK94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AL94" s="14" t="s">
+      <c r="AL94" s="15" t="s">
         <v>160</v>
       </c>
       <c r="AM94" s="9"/>
@@ -10666,7 +10675,7 @@
       <c r="A95" s="2">
         <v>93.0</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="14" t="s">
         <v>161</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -10675,13 +10684,13 @@
       <c r="D95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G95" s="13" t="s">
+      <c r="G95" s="14" t="s">
         <v>161</v>
       </c>
       <c r="H95" s="8" t="s">
@@ -10690,16 +10699,16 @@
       <c r="I95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J95" s="13" t="s">
+      <c r="J95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="K95" s="13" t="s">
+      <c r="K95" s="14" t="s">
         <v>161</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M95" s="13" t="s">
+      <c r="M95" s="14" t="s">
         <v>161</v>
       </c>
       <c r="N95" s="8" t="s">
@@ -10711,70 +10720,70 @@
       <c r="P95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="Q95" s="13" t="s">
+      <c r="Q95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="R95" s="13" t="s">
+      <c r="R95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="S95" s="13" t="s">
+      <c r="S95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="T95" s="13" t="s">
+      <c r="T95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="U95" s="13" t="s">
+      <c r="U95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="V95" s="13" t="s">
+      <c r="V95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="W95" s="13" t="s">
+      <c r="W95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="X95" s="13" t="s">
+      <c r="X95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="Y95" s="13" t="s">
+      <c r="Y95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="Z95" s="13" t="s">
+      <c r="Z95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AA95" s="13" t="s">
+      <c r="AA95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AB95" s="13" t="s">
+      <c r="AB95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AC95" s="13" t="s">
+      <c r="AC95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AD95" s="13" t="s">
+      <c r="AD95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AE95" s="13" t="s">
+      <c r="AE95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AF95" s="13" t="s">
+      <c r="AF95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AG95" s="13" t="s">
+      <c r="AG95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AH95" s="13" t="s">
+      <c r="AH95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AI95" s="13" t="s">
+      <c r="AI95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AJ95" s="13" t="s">
+      <c r="AJ95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AK95" s="13" t="s">
+      <c r="AK95" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="AL95" s="14" t="s">
+      <c r="AL95" s="15" t="s">
         <v>161</v>
       </c>
       <c r="AM95" s="9"/>
@@ -10803,7 +10812,7 @@
       <c r="A96" s="2">
         <v>94.0</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="14" t="s">
         <v>162</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -10812,13 +10821,13 @@
       <c r="D96" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G96" s="13" t="s">
+      <c r="G96" s="14" t="s">
         <v>162</v>
       </c>
       <c r="H96" s="8" t="s">
@@ -10827,16 +10836,16 @@
       <c r="I96" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J96" s="13" t="s">
+      <c r="J96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K96" s="13" t="s">
+      <c r="K96" s="14" t="s">
         <v>162</v>
       </c>
       <c r="L96" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M96" s="13" t="s">
+      <c r="M96" s="14" t="s">
         <v>162</v>
       </c>
       <c r="N96" s="8" t="s">
@@ -10848,70 +10857,70 @@
       <c r="P96" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="Q96" s="13" t="s">
+      <c r="Q96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="R96" s="13" t="s">
+      <c r="R96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="S96" s="13" t="s">
+      <c r="S96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="T96" s="13" t="s">
+      <c r="T96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="U96" s="13" t="s">
+      <c r="U96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="V96" s="13" t="s">
+      <c r="V96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="W96" s="13" t="s">
+      <c r="W96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="X96" s="13" t="s">
+      <c r="X96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="Y96" s="13" t="s">
+      <c r="Y96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="Z96" s="13" t="s">
+      <c r="Z96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AA96" s="13" t="s">
+      <c r="AA96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AB96" s="13" t="s">
+      <c r="AB96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AC96" s="13" t="s">
+      <c r="AC96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AD96" s="13" t="s">
+      <c r="AD96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AE96" s="13" t="s">
+      <c r="AE96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AF96" s="13" t="s">
+      <c r="AF96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AG96" s="13" t="s">
+      <c r="AG96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AH96" s="13" t="s">
+      <c r="AH96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AI96" s="13" t="s">
+      <c r="AI96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AJ96" s="13" t="s">
+      <c r="AJ96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AK96" s="13" t="s">
+      <c r="AK96" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AL96" s="14" t="s">
+      <c r="AL96" s="15" t="s">
         <v>162</v>
       </c>
       <c r="AM96" s="9"/>
@@ -11004,7 +11013,7 @@
       <c r="A98" s="2">
         <v>96.0</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -11013,13 +11022,13 @@
       <c r="D98" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G98" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H98" s="8" t="s">
@@ -11028,16 +11037,16 @@
       <c r="I98" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="J98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K98" s="14" t="s">
         <v>164</v>
       </c>
       <c r="L98" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="M98" s="13" t="s">
+      <c r="M98" s="14" t="s">
         <v>164</v>
       </c>
       <c r="N98" s="8" t="s">
@@ -11049,70 +11058,70 @@
       <c r="P98" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="Q98" s="13" t="s">
+      <c r="Q98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="R98" s="13" t="s">
+      <c r="R98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="S98" s="13" t="s">
+      <c r="S98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="T98" s="13" t="s">
+      <c r="T98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="U98" s="13" t="s">
+      <c r="U98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="V98" s="13" t="s">
+      <c r="V98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="W98" s="13" t="s">
+      <c r="W98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="X98" s="13" t="s">
+      <c r="X98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="Y98" s="13" t="s">
+      <c r="Y98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="Z98" s="13" t="s">
+      <c r="Z98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AA98" s="13" t="s">
+      <c r="AA98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AB98" s="13" t="s">
+      <c r="AB98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AC98" s="13" t="s">
+      <c r="AC98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AD98" s="13" t="s">
+      <c r="AD98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AE98" s="13" t="s">
+      <c r="AE98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AF98" s="13" t="s">
+      <c r="AF98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AG98" s="13" t="s">
+      <c r="AG98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AH98" s="13" t="s">
+      <c r="AH98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AI98" s="13" t="s">
+      <c r="AI98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AJ98" s="13" t="s">
+      <c r="AJ98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AK98" s="13" t="s">
+      <c r="AK98" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AL98" s="14" t="s">
+      <c r="AL98" s="15" t="s">
         <v>164</v>
       </c>
       <c r="AM98" s="9"/>
@@ -11206,7 +11215,7 @@
       <c r="A100" s="2">
         <v>98.0</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C100" s="8" t="s">
@@ -11215,13 +11224,13 @@
       <c r="D100" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="14" t="s">
         <v>166</v>
       </c>
       <c r="H100" s="8" t="s">
@@ -11230,16 +11239,16 @@
       <c r="I100" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="J100" s="13" t="s">
+      <c r="J100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="K100" s="14" t="s">
         <v>166</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="M100" s="13" t="s">
+      <c r="M100" s="14" t="s">
         <v>166</v>
       </c>
       <c r="N100" s="8" t="s">
@@ -11251,70 +11260,70 @@
       <c r="P100" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="Q100" s="13" t="s">
+      <c r="Q100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="R100" s="13" t="s">
+      <c r="R100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="S100" s="13" t="s">
+      <c r="S100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="T100" s="13" t="s">
+      <c r="T100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="U100" s="13" t="s">
+      <c r="U100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="V100" s="13" t="s">
+      <c r="V100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="W100" s="13" t="s">
+      <c r="W100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="X100" s="13" t="s">
+      <c r="X100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="Y100" s="13" t="s">
+      <c r="Y100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="Z100" s="13" t="s">
+      <c r="Z100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AA100" s="13" t="s">
+      <c r="AA100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AB100" s="13" t="s">
+      <c r="AB100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AC100" s="13" t="s">
+      <c r="AC100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AD100" s="13" t="s">
+      <c r="AD100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AE100" s="13" t="s">
+      <c r="AE100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AF100" s="13" t="s">
+      <c r="AF100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AG100" s="13" t="s">
+      <c r="AG100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AH100" s="13" t="s">
+      <c r="AH100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AI100" s="13" t="s">
+      <c r="AI100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AJ100" s="13" t="s">
+      <c r="AJ100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AK100" s="13" t="s">
+      <c r="AK100" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AL100" s="14" t="s">
+      <c r="AL100" s="15" t="s">
         <v>166</v>
       </c>
       <c r="AM100" s="9"/>
@@ -66261,592 +66270,592 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="21">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="22">
         <v>7.0</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="22">
         <v>8.0</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>9.0</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>10.0</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>13.0</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <v>14.0</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="22">
         <v>15.0</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <v>16.0</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="22">
         <v>17.0</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="22">
         <v>18.0</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="22">
         <v>19.0</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="22">
         <v>20.0</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="22">
         <v>21.0</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="22">
         <v>25.0</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="22">
         <v>28.0</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="22">
         <v>29.0</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="22">
         <v>30.0</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="22">
         <v>31.0</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="22">
         <v>38.0</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="22">
         <v>39.0</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="22">
         <v>40.0</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24">
-      <c r="F24" s="21">
+      <c r="F24" s="22">
         <v>41.0</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25">
-      <c r="F25" s="21">
+      <c r="F25" s="22">
         <v>42.0</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26">
-      <c r="F26" s="21">
+      <c r="F26" s="22">
         <v>43.0</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="21">
+      <c r="F27" s="22">
         <v>44.0</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28">
-      <c r="F28" s="21">
+      <c r="F28" s="22">
         <v>45.0</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29">
-      <c r="F29" s="21">
+      <c r="F29" s="22">
         <v>46.0</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30">
-      <c r="F30" s="21">
+      <c r="F30" s="22">
         <v>47.0</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31">
-      <c r="F31" s="21">
+      <c r="F31" s="22">
         <v>48.0</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="32">
-      <c r="F32" s="21">
+      <c r="F32" s="22">
         <v>49.0</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33">
-      <c r="F33" s="21">
+      <c r="F33" s="22">
         <v>50.0</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="34">
-      <c r="F34" s="21">
+      <c r="F34" s="22">
         <v>51.0</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35">
-      <c r="F35" s="21">
+      <c r="F35" s="22">
         <v>57.0</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36">
-      <c r="F36" s="21">
+      <c r="F36" s="22">
         <v>60.0</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37">
-      <c r="F37" s="21">
+      <c r="F37" s="22">
         <v>64.0</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="38">
-      <c r="F38" s="21">
+      <c r="F38" s="22">
         <v>65.0</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" s="21">
+      <c r="F39" s="22">
         <v>78.0</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" s="21">
+      <c r="F40" s="22">
         <v>81.0</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" s="21">
+      <c r="F41" s="22">
         <v>82.0</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" s="21">
+      <c r="F42" s="22">
         <v>84.0</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" s="21">
+      <c r="F43" s="22">
         <v>90.0</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="22" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" s="21">
+      <c r="F44" s="22">
         <v>91.0</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" s="21">
+      <c r="F45" s="22">
         <v>92.0</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" s="21">
+      <c r="F46" s="22">
         <v>93.0</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" s="21">
+      <c r="F47" s="22">
         <v>94.0</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" s="21">
+      <c r="F48" s="22">
         <v>96.0</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" s="21">
+      <c r="F49" s="22">
         <v>98.0</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="22" t="s">
         <v>166</v>
       </c>
     </row>
